--- a/biology/Histoire de la zoologie et de la botanique/Henry_Constantine_Richter/Henry_Constantine_Richter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Constantine_Richter/Henry_Constantine_Richter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Constantine Richter (1821-1902) est un illustrateur animalier britannique. 
 Henry Richter est employé par John Gould durant trente ans pour l'aider dans l'illustration de ses publications zoologiques après la mort de son épouse, Elizabeth Gould. 
